--- a/wiki/Newton2.xlsx
+++ b/wiki/Newton2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="45" windowWidth="21255" windowHeight="9975"/>
+    <workbookView xWindow="285" yWindow="45" windowWidth="19440" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -53,9 +53,6 @@
     <t>exp_ID</t>
   </si>
   <si>
-    <t>meta_ID</t>
-  </si>
-  <si>
     <t>Titel</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>t4</t>
+  </si>
+  <si>
+    <t>Anzahl t</t>
   </si>
 </sst>
 </file>
@@ -414,18 +414,18 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -433,40 +433,40 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -474,25 +474,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C3">
-        <v>255</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>30.02</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.3</v>
+      <c r="F3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -510,25 +510,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C4">
-        <v>255</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>30.02</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
+      <c r="F4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>2.5</v>
@@ -542,25 +542,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C5">
-        <v>255</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>30.02</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.3</v>
+      <c r="F5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>2.4</v>
@@ -574,25 +574,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C6">
-        <v>255</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>30.02</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.3</v>
+      <c r="F6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>1.7</v>
@@ -612,24 +612,21 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C7">
-        <v>255</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>30.02</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I7">
+      <c r="F7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
         <v>20</v>
       </c>
       <c r="J7">
@@ -650,24 +647,21 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C8">
-        <v>255</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30.02</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I8">
+      <c r="F8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
         <v>20</v>
       </c>
       <c r="J8">
@@ -688,24 +682,21 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="C9">
-        <v>505</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>59.45</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
         <v>40</v>
       </c>
       <c r="J9">
@@ -720,24 +711,21 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="C10">
-        <v>505</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>59.45</v>
       </c>
-      <c r="G10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I10">
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
         <v>40</v>
       </c>
       <c r="J10">
@@ -752,24 +740,21 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="C11">
-        <v>505</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>59.45</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
         <v>40</v>
       </c>
       <c r="J11">
@@ -784,24 +769,21 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="C12">
-        <v>505</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>59.45</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I12">
+      <c r="F12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
         <v>20</v>
       </c>
       <c r="J12">
@@ -822,24 +804,21 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="C13">
-        <v>505</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>59.45</v>
       </c>
-      <c r="G13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I13">
+      <c r="F13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H13">
         <v>20</v>
       </c>
       <c r="J13">
@@ -860,24 +839,21 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="C14">
-        <v>505</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>59.45</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I14">
+      <c r="F14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H14">
         <v>20</v>
       </c>
       <c r="J14">
@@ -898,24 +874,21 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C15">
-        <v>255</v>
-      </c>
-      <c r="D15">
         <v>25</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>115.57</v>
       </c>
-      <c r="G15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I15">
+      <c r="F15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
         <v>40</v>
       </c>
       <c r="J15">
@@ -930,24 +903,21 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C16">
-        <v>255</v>
-      </c>
-      <c r="D16">
         <v>25</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>115.57</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I16">
+      <c r="F16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H16">
         <v>40</v>
       </c>
       <c r="J16">
@@ -962,24 +932,21 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C17">
-        <v>255</v>
-      </c>
-      <c r="D17">
         <v>25</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>115.57</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I17">
+      <c r="F17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H17">
         <v>20</v>
       </c>
       <c r="J17">
@@ -994,24 +961,21 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C18">
-        <v>255</v>
-      </c>
-      <c r="D18">
         <v>25</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>115.57</v>
       </c>
-      <c r="G18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I18">
+      <c r="F18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H18">
         <v>20</v>
       </c>
       <c r="J18">
@@ -1032,24 +996,21 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C19">
-        <v>255</v>
-      </c>
-      <c r="D19">
         <v>25</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>115.57</v>
       </c>
-      <c r="G19" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I19">
+      <c r="F19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H19">
         <v>20</v>
       </c>
       <c r="J19">
@@ -1070,24 +1031,21 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C20">
-        <v>255</v>
-      </c>
-      <c r="D20">
         <v>25</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>115.57</v>
       </c>
-      <c r="G20" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I20">
+      <c r="F20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H20">
         <v>20</v>
       </c>
       <c r="J20">
@@ -1104,20 +1062,20 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="E21" s="1"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="E22" s="1"/>
-      <c r="G22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="E23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="E24" s="1"/>
-      <c r="G24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
